--- a/examples/sources/data/unsolved/to_schedule/2019-02-21.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-21.xlsx
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -7581,7 +7581,7 @@
         <v>1</v>
       </c>
       <c r="N153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O153" s="2">
         <v>43517</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160">
         <v>1</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N164">
         <v>1</v>
@@ -8214,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="N168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O168" s="2">
         <v>43517</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N169">
         <v>1</v>
@@ -8337,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="N171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O171" s="2">
         <v>43517</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N174">
         <v>1</v>
@@ -8510,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O175" s="2">
         <v>43517</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176">
         <v>1</v>
